--- a/Results_and_analysis/Dependence_tensor_on_fracture_young_modul/results_analysis_complete_young_modul.xlsx
+++ b/Results_and_analysis/Dependence_tensor_on_fracture_young_modul/results_analysis_complete_young_modul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Results_and_analysis\Dependence_tensor_on_fracture_young_modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C659402C-2145-4A55-BE91-D57072B6A59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D52EA01-DEFB-4B74-BB8C-32520F0084D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{434BF738-8343-4BA8-9715-0445CC697F35}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="25580" windowHeight="15260" xr2:uid="{434BF738-8343-4BA8-9715-0445CC697F35}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>C1</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Pro tato data byl původní youngův modul matrice 50GPa</t>
+  </si>
+  <si>
+    <t>Kromě toho 7% natažení</t>
+  </si>
+  <si>
+    <t>Matrice Pa:</t>
+  </si>
+  <si>
+    <t>Fracture young modul real value</t>
   </si>
 </sst>
 </file>
@@ -270,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,12 +325,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Procenta" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -426,14 +499,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ"/>
+              <a:rPr lang="cs-CZ" b="1" u="sng"/>
               <a:t>Graf závislosti</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="cs-CZ" baseline="0"/>
-              <a:t> hodnot efektivních elastických koeficientů na tuhosti puklin</a:t>
+              <a:rPr lang="cs-CZ" b="1" u="sng" baseline="0"/>
+              <a:t> hodnot efektivních elastických koeficientů na tom, kolikrát je tuhost puklin menší než matrice</a:t>
             </a:r>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:endParaRPr lang="cs-CZ" b="1" u="sng"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -548,34 +621,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7776.4077067333801</c:v>
+                  <c:v>5582799435.5745602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4590.0834193008604</c:v>
+                  <c:v>4016323001.0426898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4261.9754229834698</c:v>
+                  <c:v>3415352499.9337201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3481.32735530432</c:v>
+                  <c:v>3090997019.4436498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2765.2755230477101</c:v>
+                  <c:v>2885925879.1770201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3285.0919995725098</c:v>
+                  <c:v>2743681992.8301702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2813.0569859513098</c:v>
+                  <c:v>2638796756.6093302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2515.0187304449501</c:v>
+                  <c:v>2558024822.46103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2630.9728226443399</c:v>
+                  <c:v>2493768709.19626</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2444.4797006713002</c:v>
+                  <c:v>2441345558.4443898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,34 +736,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>446.42595769440197</c:v>
+                  <c:v>156877201.31290501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190.43870526177599</c:v>
+                  <c:v>112269510.545919</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.272175414314901</c:v>
+                  <c:v>93177945.943226695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.32259045625801</c:v>
+                  <c:v>81978591.222065195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.303132766793</c:v>
+                  <c:v>74488978.140323997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>231.02634787532199</c:v>
+                  <c:v>69092126.237662807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.757521160286998</c:v>
+                  <c:v>65006290.407663502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>89.208185683183501</c:v>
+                  <c:v>61800779.196529098</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89.567537852328698</c:v>
+                  <c:v>59216719.095205702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.995248715733901</c:v>
+                  <c:v>57088402.280639596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -778,34 +851,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>297.33299125146101</c:v>
+                  <c:v>61431998.731929503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18.885992141553899</c:v>
+                  <c:v>85124652.260015994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>211.14842410281</c:v>
+                  <c:v>94400485.646997005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.382890278064401</c:v>
+                  <c:v>99398701.353800207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-153.619914175356</c:v>
+                  <c:v>102563378.08507501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.73735544102099</c:v>
+                  <c:v>104771296.930645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.077995756600401</c:v>
+                  <c:v>106413968.087431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.632937465487899</c:v>
+                  <c:v>107692852.104231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.570948749121797</c:v>
+                  <c:v>108722520.470329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-27.777214112908698</c:v>
+                  <c:v>109573165.58483499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,34 +966,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>186.22112850194199</c:v>
+                  <c:v>158210465.47478601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192.54704702248199</c:v>
+                  <c:v>113018303.828328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.84022918439</c:v>
+                  <c:v>93705176.787528902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.36840618960301</c:v>
+                  <c:v>82394405.219740003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.576446254404</c:v>
+                  <c:v>74838297.550564006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>231.34392324095401</c:v>
+                  <c:v>69397011.753018007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-245.08824692105901</c:v>
+                  <c:v>65279047.458564296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.701956192978997</c:v>
+                  <c:v>61854899.315766297</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.756695792978704</c:v>
+                  <c:v>59059972.719399698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.292833500944703</c:v>
+                  <c:v>56774797.901144996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,34 +1081,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7856.6617546010802</c:v>
+                  <c:v>5829948239.1860304</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4838.9442224274098</c:v>
+                  <c:v>4130874972.33464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4111.75638896901</c:v>
+                  <c:v>3461178481.90799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3179.7067008129702</c:v>
+                  <c:v>3093465349.60531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2873.19664139726</c:v>
+                  <c:v>2858050316.2570701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4163.9882589894496</c:v>
+                  <c:v>2693150382.0058198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3233.0793619677502</c:v>
+                  <c:v>2570580053.4813299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3006.2535937831699</c:v>
+                  <c:v>2476673277.1257</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2291.2778442029298</c:v>
+                  <c:v>2401867683.26651</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2220.3631606972199</c:v>
+                  <c:v>2340530131.2536101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1123,34 +1196,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>300.64703005068901</c:v>
+                  <c:v>65682379.953283802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.537013378869201</c:v>
+                  <c:v>51758628.954369597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.220446353190994</c:v>
+                  <c:v>45861195.553945601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-103.365830745989</c:v>
+                  <c:v>43082713.604244798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-167.058005825919</c:v>
+                  <c:v>41688413.701889701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>165.578982207526</c:v>
+                  <c:v>40987393.498797402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19.593236824269901</c:v>
+                  <c:v>40663725.7582241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111.53432833667701</c:v>
+                  <c:v>40700266.551729597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.2413045808972</c:v>
+                  <c:v>40867964.980322599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3449718958025501</c:v>
+                  <c:v>41078701.107382402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,34 +1317,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>303.22606638192502</c:v>
+                  <c:v>61769483.1248063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-32.1504406523295</c:v>
+                  <c:v>85360198.632519603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222.65710028550799</c:v>
+                  <c:v>93593375.744811594</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8358974158183301</c:v>
+                  <c:v>97105913.323163494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-172.362803407001</c:v>
+                  <c:v>98864654.748426005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.638304849549598</c:v>
+                  <c:v>100196729.137087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.7680121670086</c:v>
+                  <c:v>101336748.09742901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.141644196888095</c:v>
+                  <c:v>102335935.186721</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.798350111971899</c:v>
+                  <c:v>103225296.69749901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-97.005838189453698</c:v>
+                  <c:v>104000180.973634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,34 +1438,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>275.35317106789</c:v>
+                  <c:v>62446125.282962799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2979888930741099</c:v>
+                  <c:v>49802403.492631003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.7496263670118</c:v>
+                  <c:v>43691105.315074898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-163.71143621271901</c:v>
+                  <c:v>39797840.332121298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-94.592866813798693</c:v>
+                  <c:v>37155269.838930503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.44479384942299</c:v>
+                  <c:v>35568799.920106903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-91.8357164145648</c:v>
+                  <c:v>34643025.590091497</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.4968658577573</c:v>
+                  <c:v>34110985.5236331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.168393508076498</c:v>
+                  <c:v>33825098.804961801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-51.699179257666501</c:v>
+                  <c:v>33671659.148615301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,34 +1559,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3478.7805980302201</c:v>
+                  <c:v>2286182005.4303198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1772.82220016223</c:v>
+                  <c:v>1448648566.91957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1296.5627000024899</c:v>
+                  <c:v>1121898729.20029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1163.5781619100301</c:v>
+                  <c:v>944704229.99351299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>863.45837260028895</c:v>
+                  <c:v>832522144.34599102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1190.00962917787</c:v>
+                  <c:v>754222346.66114497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>843.53305521664902</c:v>
+                  <c:v>696125975.37559402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>720.28337483840698</c:v>
+                  <c:v>651141986.98679602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>588.14354160213099</c:v>
+                  <c:v>615181099.03473794</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455.73483972331098</c:v>
+                  <c:v>585742824.63456297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,6 +1632,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Kolikrát</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> menší je tuhost puklin oproti matrici</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1633,7 +1736,7 @@
         <c:axId val="1131193999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
+          <c:max val="6000000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1652,6 +1755,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Hodnota koeficientů</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1805,7 +1933,1532 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" b="1" u="sng"/>
+              <a:t>Graf závislosti velikosti koeficientů na tuhosti puklin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25310862371774645"/>
+          <c:y val="6.7071218191122692E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3752157408214799E-2"/>
+          <c:y val="8.2922382756958027E-2"/>
+          <c:w val="0.82333730239859404"/>
+          <c:h val="0.81780482064258453"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$T$4:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5582799435.5745602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4016323001.0426898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3415352499.9337201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3090997019.4436498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2885925879.1770201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2743681992.8301702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2638796756.6093302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2558024822.46103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2493768709.19626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2441345558.4443898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$U$4:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>156877201.31290501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112269510.545919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93177945.943226695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81978591.222065195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74488978.140323997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69092126.237662807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65006290.407663502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61800779.196529098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59216719.095205702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57088402.280639596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>C3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$V$4:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61431998.731929503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85124652.260015994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94400485.646997005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99398701.353800207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102563378.08507501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104771296.930645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106413968.087431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107692852.104231</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108722520.470329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109573165.58483499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$W$4:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>158210465.47478601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113018303.828328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93705176.787528902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82394405.219740003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74838297.550564006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69397011.753018007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65279047.458564296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61854899.315766297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59059972.719399698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56774797.901144996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>C5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$X$4:$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5829948239.1860304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4130874972.33464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3461178481.90799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3093465349.60531</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2858050316.2570701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2693150382.0058198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2570580053.4813299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2476673277.1257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2401867683.26651</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2340530131.2536101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>C6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$Y$4:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65682379.953283802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51758628.954369597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45861195.553945601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43082713.604244798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41688413.701889701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40987393.498797402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40663725.7582241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40700266.551729597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40867964.980322599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41078701.107382402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>C7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$Z$4:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61769483.1248063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85360198.632519603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93593375.744811594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97105913.323163494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98864654.748426005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100196729.137087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101336748.09742901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102335935.186721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103225296.69749901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104000180.973634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>C8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$AA$4:$AA$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>62446125.282962799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49802403.492631003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43691105.315074898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39797840.332121298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37155269.838930503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35568799.920106903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34643025.590091497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34110985.5236331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33825098.804961801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33671659.148615301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>C9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>List1!$S$4:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166666666.66666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83333333.333333328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71428571.428571433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62500000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55555555.555555552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>List1!$AB$4:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2286182005.4303198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1448648566.91957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1121898729.20029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>944704229.99351299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>832522144.34599102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>754222346.66114497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>696125975.37559402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>651141986.98679602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>615181099.03473794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>585742824.63456297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-92BB-4D3A-8B18-60CF12EAE057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="254745936"/>
+        <c:axId val="254747856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="254745936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Tuhost puklin</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> [Pa]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254747856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="254747856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Hodnota</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" baseline="0"/>
+                  <a:t> efektivních elastických koeficientů</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="254745936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2361,6 +4014,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2371,8 +4540,8 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>86994</xdr:rowOff>
     </xdr:to>
@@ -2394,6 +4563,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>494391</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>117929</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA49174-0C5A-246B-2B3A-832B576CA48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2699,23 +4904,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47630F0-D406-4D99-ACD0-4230A5574627}">
-  <dimension ref="B1:M16"/>
+  <dimension ref="B1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
@@ -2733,8 +4948,22 @@
       <c r="M2" t="s">
         <v>14</v>
       </c>
+      <c r="S2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -2763,456 +4992,942 @@
       <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="N3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>100</v>
       </c>
       <c r="C4" s="4">
-        <v>7776.4077067333801</v>
+        <v>5582799435.5745602</v>
       </c>
       <c r="D4" s="5">
-        <v>446.42595769440197</v>
+        <v>156877201.31290501</v>
       </c>
       <c r="E4" s="5">
-        <v>297.33299125146101</v>
+        <v>61431998.731929503</v>
       </c>
       <c r="F4" s="5">
-        <v>186.22112850194199</v>
+        <v>158210465.47478601</v>
       </c>
       <c r="G4" s="5">
-        <v>7856.6617546010802</v>
+        <v>5829948239.1860304</v>
       </c>
       <c r="H4" s="5">
-        <v>300.64703005068901</v>
+        <v>65682379.953283802</v>
       </c>
       <c r="I4" s="5">
-        <v>303.22606638192502</v>
+        <v>61769483.1248063</v>
       </c>
       <c r="J4" s="5">
-        <v>275.35317106789</v>
+        <v>62446125.282962799</v>
       </c>
       <c r="K4" s="5">
-        <v>3478.7805980302201</v>
+        <v>2286182005.4303198</v>
+      </c>
+      <c r="S4" s="21">
+        <f>$N$5/B4</f>
+        <v>500000000</v>
+      </c>
+      <c r="T4" s="4">
+        <v>5582799435.5745602</v>
+      </c>
+      <c r="U4" s="5">
+        <v>156877201.31290501</v>
+      </c>
+      <c r="V4" s="5">
+        <v>61431998.731929503</v>
+      </c>
+      <c r="W4" s="5">
+        <v>158210465.47478601</v>
+      </c>
+      <c r="X4" s="5">
+        <v>5829948239.1860304</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>65682379.953283802</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>61769483.1248063</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>62446125.282962799</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>2286182005.4303198</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>4590.0834193008604</v>
+        <v>4016323001.0426898</v>
       </c>
       <c r="D5" s="7">
-        <v>190.43870526177599</v>
+        <v>112269510.545919</v>
       </c>
       <c r="E5" s="7">
-        <v>-18.885992141553899</v>
+        <v>85124652.260015994</v>
       </c>
       <c r="F5" s="7">
-        <v>192.54704702248199</v>
+        <v>113018303.828328</v>
       </c>
       <c r="G5" s="7">
-        <v>4838.9442224274098</v>
+        <v>4130874972.33464</v>
       </c>
       <c r="H5" s="7">
-        <v>16.537013378869201</v>
+        <v>51758628.954369597</v>
       </c>
       <c r="I5" s="7">
-        <v>-32.1504406523295</v>
+        <v>85360198.632519603</v>
       </c>
       <c r="J5" s="7">
-        <v>4.2979888930741099</v>
+        <v>49802403.492631003</v>
       </c>
       <c r="K5" s="7">
-        <v>1772.82220016223</v>
+        <v>1448648566.91957</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="20">
+        <v>50000000000</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" ref="S5:S13" si="0">$N$5/B5</f>
+        <v>250000000</v>
+      </c>
+      <c r="T5">
+        <v>4016323001.0426898</v>
+      </c>
+      <c r="U5" s="7">
+        <v>112269510.545919</v>
+      </c>
+      <c r="V5" s="7">
+        <v>85124652.260015994</v>
+      </c>
+      <c r="W5" s="7">
+        <v>113018303.828328</v>
+      </c>
+      <c r="X5" s="7">
+        <v>4130874972.33464</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>51758628.954369597</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>85360198.632519603</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>49802403.492631003</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>1448648566.91957</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>300</v>
       </c>
       <c r="C6">
-        <v>4261.9754229834698</v>
+        <v>3415352499.9337201</v>
       </c>
       <c r="D6" s="7">
-        <v>96.272175414314901</v>
+        <v>93177945.943226695</v>
       </c>
       <c r="E6" s="7">
-        <v>211.14842410281</v>
+        <v>94400485.646997005</v>
       </c>
       <c r="F6" s="7">
-        <v>110.84022918439</v>
+        <v>93705176.787528902</v>
       </c>
       <c r="G6" s="7">
-        <v>4111.75638896901</v>
+        <v>3461178481.90799</v>
       </c>
       <c r="H6" s="7">
-        <v>73.220446353190994</v>
+        <v>45861195.553945601</v>
       </c>
       <c r="I6" s="7">
-        <v>222.65710028550799</v>
+        <v>93593375.744811594</v>
       </c>
       <c r="J6" s="7">
-        <v>13.7496263670118</v>
+        <v>43691105.315074898</v>
       </c>
       <c r="K6" s="7">
-        <v>1296.5627000024899</v>
+        <v>1121898729.20029</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="0"/>
+        <v>166666666.66666666</v>
+      </c>
+      <c r="T6">
+        <v>3415352499.9337201</v>
+      </c>
+      <c r="U6" s="7">
+        <v>93177945.943226695</v>
+      </c>
+      <c r="V6" s="7">
+        <v>94400485.646997005</v>
+      </c>
+      <c r="W6" s="7">
+        <v>93705176.787528902</v>
+      </c>
+      <c r="X6" s="7">
+        <v>3461178481.90799</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>45861195.553945601</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>93593375.744811594</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>43691105.315074898</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>1121898729.20029</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B7" s="6">
         <v>400</v>
       </c>
       <c r="C7">
-        <v>3481.32735530432</v>
+        <v>3090997019.4436498</v>
       </c>
       <c r="D7" s="7">
-        <v>200.32259045625801</v>
+        <v>81978591.222065195</v>
       </c>
       <c r="E7" s="7">
-        <v>40.382890278064401</v>
+        <v>99398701.353800207</v>
       </c>
       <c r="F7" s="7">
-        <v>200.36840618960301</v>
+        <v>82394405.219740003</v>
       </c>
       <c r="G7" s="7">
-        <v>3179.7067008129702</v>
+        <v>3093465349.60531</v>
       </c>
       <c r="H7" s="7">
-        <v>-103.365830745989</v>
+        <v>43082713.604244798</v>
       </c>
       <c r="I7" s="7">
-        <v>8.8358974158183301</v>
+        <v>97105913.323163494</v>
       </c>
       <c r="J7" s="7">
-        <v>-163.71143621271901</v>
+        <v>39797840.332121298</v>
       </c>
       <c r="K7" s="7">
-        <v>1163.5781619100301</v>
+        <v>944704229.99351299</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="0"/>
+        <v>125000000</v>
+      </c>
+      <c r="T7">
+        <v>3090997019.4436498</v>
+      </c>
+      <c r="U7" s="7">
+        <v>81978591.222065195</v>
+      </c>
+      <c r="V7" s="7">
+        <v>99398701.353800207</v>
+      </c>
+      <c r="W7" s="7">
+        <v>82394405.219740003</v>
+      </c>
+      <c r="X7" s="7">
+        <v>3093465349.60531</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>43082713.604244798</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>97105913.323163494</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>39797840.332121298</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>944704229.99351299</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>500</v>
       </c>
       <c r="C8">
-        <v>2765.2755230477101</v>
+        <v>2885925879.1770201</v>
       </c>
       <c r="D8" s="7">
-        <v>111.303132766793</v>
+        <v>74488978.140323997</v>
       </c>
       <c r="E8" s="7">
-        <v>-153.619914175356</v>
+        <v>102563378.08507501</v>
       </c>
       <c r="F8" s="7">
-        <v>157.576446254404</v>
+        <v>74838297.550564006</v>
       </c>
       <c r="G8" s="7">
-        <v>2873.19664139726</v>
+        <v>2858050316.2570701</v>
       </c>
       <c r="H8" s="7">
-        <v>-167.058005825919</v>
+        <v>41688413.701889701</v>
       </c>
       <c r="I8" s="7">
-        <v>-172.362803407001</v>
+        <v>98864654.748426005</v>
       </c>
       <c r="J8" s="7">
-        <v>-94.592866813798693</v>
+        <v>37155269.838930503</v>
       </c>
       <c r="K8" s="7">
-        <v>863.45837260028895</v>
+        <v>832522144.34599102</v>
+      </c>
+      <c r="S8" s="21">
+        <f t="shared" si="0"/>
+        <v>100000000</v>
+      </c>
+      <c r="T8">
+        <v>2885925879.1770201</v>
+      </c>
+      <c r="U8" s="7">
+        <v>74488978.140323997</v>
+      </c>
+      <c r="V8" s="7">
+        <v>102563378.08507501</v>
+      </c>
+      <c r="W8" s="7">
+        <v>74838297.550564006</v>
+      </c>
+      <c r="X8" s="7">
+        <v>2858050316.2570701</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>41688413.701889701</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>98864654.748426005</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>37155269.838930503</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>832522144.34599102</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>600</v>
       </c>
       <c r="C9">
-        <v>3285.0919995725098</v>
+        <v>2743681992.8301702</v>
       </c>
       <c r="D9" s="7">
-        <v>231.02634787532199</v>
+        <v>69092126.237662807</v>
       </c>
       <c r="E9" s="7">
-        <v>100.73735544102099</v>
+        <v>104771296.930645</v>
       </c>
       <c r="F9" s="7">
-        <v>231.34392324095401</v>
+        <v>69397011.753018007</v>
       </c>
       <c r="G9" s="7">
-        <v>4163.9882589894496</v>
+        <v>2693150382.0058198</v>
       </c>
       <c r="H9" s="7">
-        <v>165.578982207526</v>
+        <v>40987393.498797402</v>
       </c>
       <c r="I9" s="7">
-        <v>76.638304849549598</v>
+        <v>100196729.137087</v>
       </c>
       <c r="J9" s="7">
-        <v>127.44479384942299</v>
+        <v>35568799.920106903</v>
       </c>
       <c r="K9" s="7">
-        <v>1190.00962917787</v>
+        <v>754222346.66114497</v>
+      </c>
+      <c r="S9" s="21">
+        <f t="shared" si="0"/>
+        <v>83333333.333333328</v>
+      </c>
+      <c r="T9">
+        <v>2743681992.8301702</v>
+      </c>
+      <c r="U9" s="7">
+        <v>69092126.237662807</v>
+      </c>
+      <c r="V9" s="7">
+        <v>104771296.930645</v>
+      </c>
+      <c r="W9" s="7">
+        <v>69397011.753018007</v>
+      </c>
+      <c r="X9" s="7">
+        <v>2693150382.0058198</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>40987393.498797402</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>100196729.137087</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>35568799.920106903</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>754222346.66114497</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>700</v>
       </c>
       <c r="C10">
-        <v>2813.0569859513098</v>
+        <v>2638796756.6093302</v>
       </c>
       <c r="D10" s="7">
-        <v>89.757521160286998</v>
+        <v>65006290.407663502</v>
       </c>
       <c r="E10" s="7">
-        <v>66.077995756600401</v>
+        <v>106413968.087431</v>
       </c>
       <c r="F10" s="7">
-        <v>-245.08824692105901</v>
+        <v>65279047.458564296</v>
       </c>
       <c r="G10" s="7">
-        <v>3233.0793619677502</v>
+        <v>2570580053.4813299</v>
       </c>
       <c r="H10" s="7">
-        <v>-19.593236824269901</v>
+        <v>40663725.7582241</v>
       </c>
       <c r="I10" s="7">
-        <v>33.7680121670086</v>
+        <v>101336748.09742901</v>
       </c>
       <c r="J10" s="7">
-        <v>-91.8357164145648</v>
+        <v>34643025.590091497</v>
       </c>
       <c r="K10" s="7">
-        <v>843.53305521664902</v>
+        <v>696125975.37559402</v>
+      </c>
+      <c r="S10" s="21">
+        <f t="shared" si="0"/>
+        <v>71428571.428571433</v>
+      </c>
+      <c r="T10">
+        <v>2638796756.6093302</v>
+      </c>
+      <c r="U10" s="7">
+        <v>65006290.407663502</v>
+      </c>
+      <c r="V10" s="7">
+        <v>106413968.087431</v>
+      </c>
+      <c r="W10" s="7">
+        <v>65279047.458564296</v>
+      </c>
+      <c r="X10" s="7">
+        <v>2570580053.4813299</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>40663725.7582241</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>101336748.09742901</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>34643025.590091497</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>696125975.37559402</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>800</v>
       </c>
       <c r="C11">
-        <v>2515.0187304449501</v>
+        <v>2558024822.46103</v>
       </c>
       <c r="D11" s="7">
-        <v>89.208185683183501</v>
+        <v>61800779.196529098</v>
       </c>
       <c r="E11" s="7">
-        <v>98.632937465487899</v>
+        <v>107692852.104231</v>
       </c>
       <c r="F11" s="7">
-        <v>90.701956192978997</v>
+        <v>61854899.315766297</v>
       </c>
       <c r="G11" s="7">
-        <v>3006.2535937831699</v>
+        <v>2476673277.1257</v>
       </c>
       <c r="H11" s="7">
-        <v>111.53432833667701</v>
+        <v>40700266.551729597</v>
       </c>
       <c r="I11" s="7">
-        <v>68.141644196888095</v>
+        <v>102335935.186721</v>
       </c>
       <c r="J11" s="7">
-        <v>86.4968658577573</v>
+        <v>34110985.5236331</v>
       </c>
       <c r="K11" s="7">
-        <v>720.28337483840698</v>
+        <v>651141986.98679602</v>
+      </c>
+      <c r="S11" s="21">
+        <f t="shared" si="0"/>
+        <v>62500000</v>
+      </c>
+      <c r="T11">
+        <v>2558024822.46103</v>
+      </c>
+      <c r="U11" s="7">
+        <v>61800779.196529098</v>
+      </c>
+      <c r="V11" s="7">
+        <v>107692852.104231</v>
+      </c>
+      <c r="W11" s="7">
+        <v>61854899.315766297</v>
+      </c>
+      <c r="X11" s="7">
+        <v>2476673277.1257</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>40700266.551729597</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>102335935.186721</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>34110985.5236331</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>651141986.98679602</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>900</v>
       </c>
       <c r="C12">
-        <v>2630.9728226443399</v>
+        <v>2493768709.19626</v>
       </c>
       <c r="D12" s="7">
-        <v>89.567537852328698</v>
+        <v>59216719.095205702</v>
       </c>
       <c r="E12" s="7">
-        <v>63.570948749121797</v>
+        <v>108722520.470329</v>
       </c>
       <c r="F12" s="7">
-        <v>88.756695792978704</v>
+        <v>59059972.719399698</v>
       </c>
       <c r="G12" s="7">
-        <v>2291.2778442029298</v>
+        <v>2401867683.26651</v>
       </c>
       <c r="H12" s="7">
-        <v>62.2413045808972</v>
+        <v>40867964.980322599</v>
       </c>
       <c r="I12" s="7">
-        <v>57.798350111971899</v>
+        <v>103225296.69749901</v>
       </c>
       <c r="J12" s="7">
-        <v>57.168393508076498</v>
+        <v>33825098.804961801</v>
       </c>
       <c r="K12" s="7">
-        <v>588.14354160213099</v>
+        <v>615181099.03473794</v>
+      </c>
+      <c r="S12" s="21">
+        <f t="shared" si="0"/>
+        <v>55555555.555555552</v>
+      </c>
+      <c r="T12">
+        <v>2493768709.19626</v>
+      </c>
+      <c r="U12" s="7">
+        <v>59216719.095205702</v>
+      </c>
+      <c r="V12" s="7">
+        <v>108722520.470329</v>
+      </c>
+      <c r="W12" s="7">
+        <v>59059972.719399698</v>
+      </c>
+      <c r="X12" s="7">
+        <v>2401867683.26651</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>40867964.980322599</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>103225296.69749901</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>33825098.804961801</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>615181099.03473794</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>1000</v>
       </c>
       <c r="C13">
-        <v>2444.4797006713002</v>
+        <v>2441345558.4443898</v>
       </c>
       <c r="D13" s="7">
-        <v>35.995248715733901</v>
+        <v>57088402.280639596</v>
       </c>
       <c r="E13" s="7">
-        <v>-27.777214112908698</v>
+        <v>109573165.58483499</v>
       </c>
       <c r="F13" s="7">
-        <v>35.292833500944703</v>
+        <v>56774797.901144996</v>
       </c>
       <c r="G13" s="7">
-        <v>2220.3631606972199</v>
+        <v>2340530131.2536101</v>
       </c>
       <c r="H13" s="7">
-        <v>1.3449718958025501</v>
+        <v>41078701.107382402</v>
       </c>
       <c r="I13" s="7">
-        <v>-97.005838189453698</v>
+        <v>104000180.973634</v>
       </c>
       <c r="J13" s="7">
-        <v>-51.699179257666501</v>
+        <v>33671659.148615301</v>
       </c>
       <c r="K13" s="7">
-        <v>455.73483972331098</v>
+        <v>585742824.63456297</v>
+      </c>
+      <c r="S13" s="21">
+        <f t="shared" si="0"/>
+        <v>50000000</v>
+      </c>
+      <c r="T13">
+        <v>2441345558.4443898</v>
+      </c>
+      <c r="U13" s="7">
+        <v>57088402.280639596</v>
+      </c>
+      <c r="V13" s="7">
+        <v>109573165.58483499</v>
+      </c>
+      <c r="W13" s="7">
+        <v>56774797.901144996</v>
+      </c>
+      <c r="X13" s="7">
+        <v>2340530131.2536101</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>41078701.107382402</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>104000180.973634</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>33671659.148615301</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>585742824.63456297</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9">
-        <f>AVERAGEA(C4:C13)</f>
-        <v>3656.3689666654145</v>
+        <f t="shared" ref="C14:K14" si="1">AVERAGEA(C4:C13)</f>
+        <v>3186701567.4712815</v>
       </c>
       <c r="D14" s="10">
-        <f>AVERAGEA(D4:D13)</f>
-        <v>158.03174028803991</v>
+        <f t="shared" si="1"/>
+        <v>83099654.438214064</v>
       </c>
       <c r="E14" s="10">
-        <f>AVERAGEA(E4:E13)</f>
-        <v>67.760042261474794</v>
+        <f t="shared" si="1"/>
+        <v>98009301.925528884</v>
       </c>
       <c r="F14" s="10">
-        <f>AVERAGEA(F4:F13)</f>
-        <v>104.85604189596184</v>
+        <f t="shared" si="1"/>
+        <v>83453237.800884023</v>
       </c>
       <c r="G14" s="10">
-        <f>AVERAGEA(G4:G13)</f>
-        <v>3777.5227927848246</v>
+        <f t="shared" si="1"/>
+        <v>3185631888.6424012</v>
       </c>
       <c r="H14" s="10">
-        <f>AVERAGEA(H4:H13)</f>
-        <v>44.108700340747397</v>
+        <f t="shared" si="1"/>
+        <v>45237138.366418965</v>
       </c>
       <c r="I14" s="10">
-        <f>AVERAGEA(I4:I13)</f>
-        <v>46.954629315988541</v>
+        <f t="shared" si="1"/>
+        <v>94778851.56660971</v>
       </c>
       <c r="J14" s="10">
-        <f>AVERAGEA(J4:J13)</f>
-        <v>16.267164084448364</v>
+        <f t="shared" si="1"/>
+        <v>40471231.324912913</v>
       </c>
       <c r="K14" s="10">
-        <f>AVERAGEA(K4:K13)</f>
-        <v>1237.2906473263624</v>
+        <f t="shared" si="1"/>
+        <v>993636990.85825217</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" ref="T14" si="2">AVERAGEA(T4:T13)</f>
+        <v>3186701567.4712815</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" ref="U14" si="3">AVERAGEA(U4:U13)</f>
+        <v>83099654.438214064</v>
+      </c>
+      <c r="V14" s="10">
+        <f t="shared" ref="V14" si="4">AVERAGEA(V4:V13)</f>
+        <v>98009301.925528884</v>
+      </c>
+      <c r="W14" s="10">
+        <f t="shared" ref="W14" si="5">AVERAGEA(W4:W13)</f>
+        <v>83453237.800884023</v>
+      </c>
+      <c r="X14" s="10">
+        <f t="shared" ref="X14" si="6">AVERAGEA(X4:X13)</f>
+        <v>3185631888.6424012</v>
+      </c>
+      <c r="Y14" s="10">
+        <f t="shared" ref="Y14" si="7">AVERAGEA(Y4:Y13)</f>
+        <v>45237138.366418965</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" ref="Z14" si="8">AVERAGEA(Z4:Z13)</f>
+        <v>94778851.56660971</v>
+      </c>
+      <c r="AA14" s="10">
+        <f t="shared" ref="AA14" si="9">AVERAGEA(AA4:AA13)</f>
+        <v>40471231.324912913</v>
+      </c>
+      <c r="AB14" s="10">
+        <f t="shared" ref="AB14" si="10">AVERAGEA(AB4:AB13)</f>
+        <v>993636990.85825217</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9">
-        <f>_xlfn.STDEV.P(C4:C13)</f>
-        <v>1539.798787493251</v>
+        <f t="shared" ref="C15:K15" si="11">_xlfn.STDEV.P(C4:C13)</f>
+        <v>922435653.14527225</v>
       </c>
       <c r="D15" s="10">
-        <f>_xlfn.STDEV.P(D4:D13)</f>
-        <v>112.38962333225567</v>
+        <f t="shared" si="11"/>
+        <v>29487594.020347688</v>
       </c>
       <c r="E15" s="10">
-        <f>_xlfn.STDEV.P(E4:E13)</f>
-        <v>119.04557101327472</v>
+        <f t="shared" si="11"/>
+        <v>14135901.207263837</v>
       </c>
       <c r="F15" s="10">
-        <f>_xlfn.STDEV.P(F4:F13)</f>
-        <v>130.38658267502635</v>
+        <f t="shared" si="11"/>
+        <v>29907046.39558534</v>
       </c>
       <c r="G15" s="10">
-        <f>_xlfn.STDEV.P(G4:G13)</f>
-        <v>1572.4882395770021</v>
+        <f t="shared" si="11"/>
+        <v>1026136255.5086454</v>
       </c>
       <c r="H15" s="10">
-        <f>_xlfn.STDEV.P(H4:H13)</f>
-        <v>126.20476642891677</v>
+        <f t="shared" si="11"/>
+        <v>7576965.7509488063</v>
       </c>
       <c r="I15" s="10">
-        <f>_xlfn.STDEV.P(I4:I13)</f>
-        <v>132.17537343350816</v>
+        <f t="shared" si="11"/>
+        <v>12197081.837488571</v>
       </c>
       <c r="J15" s="10">
-        <f>_xlfn.STDEV.P(J4:J13)</f>
-        <v>121.33781138639532</v>
+        <f t="shared" si="11"/>
+        <v>8835401.4322027583</v>
       </c>
       <c r="K15" s="10">
-        <f>_xlfn.STDEV.P(K4:K13)</f>
-        <v>831.65900588195314</v>
+        <f t="shared" si="11"/>
+        <v>499525089.27797139</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" ref="T15:AB15" si="12">_xlfn.STDEV.P(T4:T13)</f>
+        <v>922435653.14527225</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="12"/>
+        <v>29487594.020347688</v>
+      </c>
+      <c r="V15" s="10">
+        <f t="shared" si="12"/>
+        <v>14135901.207263837</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="12"/>
+        <v>29907046.39558534</v>
+      </c>
+      <c r="X15" s="10">
+        <f t="shared" si="12"/>
+        <v>1026136255.5086454</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="12"/>
+        <v>7576965.7509488063</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="12"/>
+        <v>12197081.837488571</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" si="12"/>
+        <v>8835401.4322027583</v>
+      </c>
+      <c r="AB15" s="10">
+        <f t="shared" si="12"/>
+        <v>499525089.27797139</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="13">
         <f>C15/C14</f>
-        <v>0.42112784610398274</v>
+        <v>0.28946408492127657</v>
       </c>
       <c r="D16" s="14">
-        <f t="shared" ref="D16:K16" si="0">D15/D14</f>
-        <v>0.71118386171921111</v>
+        <f t="shared" ref="D16:K16" si="13">D15/D14</f>
+        <v>0.35484616897260612</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="0"/>
-        <v>1.7568697869741219</v>
+        <f t="shared" si="13"/>
+        <v>0.14423019988454586</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" si="0"/>
-        <v>1.2434818282040048</v>
+        <f t="shared" si="13"/>
+        <v>0.35836891633782164</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.41627498385463063</v>
+        <f t="shared" si="13"/>
+        <v>0.32211388238769384</v>
       </c>
       <c r="H16" s="15">
-        <f t="shared" si="0"/>
-        <v>2.8612216060315303</v>
+        <f t="shared" si="13"/>
+        <v>0.16749436468716686</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="0"/>
-        <v>2.8149593630909799</v>
+        <f t="shared" si="13"/>
+        <v>0.12868990957245957</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="0"/>
-        <v>7.4590635931677829</v>
+        <f t="shared" si="13"/>
+        <v>0.21831313609586031</v>
       </c>
       <c r="K16" s="14">
-        <f t="shared" si="0"/>
-        <v>0.67216139367016881</v>
+        <f t="shared" si="13"/>
+        <v>0.50272392621626083</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="13">
+        <f>T15/T14</f>
+        <v>0.28946408492127657</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" ref="U16:AB16" si="14">U15/U14</f>
+        <v>0.35484616897260612</v>
+      </c>
+      <c r="V16" s="14">
+        <f t="shared" si="14"/>
+        <v>0.14423019988454586</v>
+      </c>
+      <c r="W16" s="14">
+        <f t="shared" si="14"/>
+        <v>0.35836891633782164</v>
+      </c>
+      <c r="X16" s="14">
+        <f t="shared" si="14"/>
+        <v>0.32211388238769384</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" si="14"/>
+        <v>0.16749436468716686</v>
+      </c>
+      <c r="Z16" s="14">
+        <f t="shared" si="14"/>
+        <v>0.12868990957245957</v>
+      </c>
+      <c r="AA16" s="14">
+        <f t="shared" si="14"/>
+        <v>0.21831313609586031</v>
+      </c>
+      <c r="AB16" s="14">
+        <f t="shared" si="14"/>
+        <v>0.50272392621626083</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:AB2"/>
   </mergeCells>
   <conditionalFormatting sqref="C16:K16">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:AB16">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Results_and_analysis/Dependence_tensor_on_fracture_young_modul/results_analysis_complete_young_modul.xlsx
+++ b/Results_and_analysis/Dependence_tensor_on_fracture_young_modul/results_analysis_complete_young_modul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Results_and_analysis\Dependence_tensor_on_fracture_young_modul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Python_scripts\Results_and_analysis\Dependence_tensor_on_fracture_young_modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D52EA01-DEFB-4B74-BB8C-32520F0084D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8769E-859B-437E-8DB7-CC754CA9A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="25580" windowHeight="15260" xr2:uid="{434BF738-8343-4BA8-9715-0445CC697F35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{434BF738-8343-4BA8-9715-0445CC697F35}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -35,33 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
   <si>
     <t>μ</t>
   </si>
@@ -88,6 +61,33 @@
   </si>
   <si>
     <t>Fracture young modul real value</t>
+  </si>
+  <si>
+    <t>C1111</t>
+  </si>
+  <si>
+    <t>C2211</t>
+  </si>
+  <si>
+    <t>C1211</t>
+  </si>
+  <si>
+    <t>C1122</t>
+  </si>
+  <si>
+    <t>C2222</t>
+  </si>
+  <si>
+    <t>C1222</t>
+  </si>
+  <si>
+    <t>C1112</t>
+  </si>
+  <si>
+    <t>C2212</t>
+  </si>
+  <si>
+    <t>C1212</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -195,15 +195,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -274,12 +265,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,47 +319,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -549,7 +587,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C1</c:v>
+            <c:strRef>
+              <c:f>List1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -664,7 +710,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C2</c:v>
+            <c:strRef>
+              <c:f>List1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -779,7 +833,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C3</c:v>
+            <c:strRef>
+              <c:f>List1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -894,7 +956,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>C4</c:v>
+            <c:strRef>
+              <c:f>List1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1009,7 +1079,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>C5</c:v>
+            <c:strRef>
+              <c:f>List1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1124,7 +1202,15 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>C6</c:v>
+            <c:strRef>
+              <c:f>List1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1239,7 +1325,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>C7</c:v>
+            <c:strRef>
+              <c:f>List1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1360,7 +1454,15 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>C8</c:v>
+            <c:strRef>
+              <c:f>List1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1481,7 +1583,15 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>C9</c:v>
+            <c:strRef>
+              <c:f>List1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2030,7 +2140,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C1</c:v>
+            <c:strRef>
+              <c:f>List1!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2145,7 +2263,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C2</c:v>
+            <c:strRef>
+              <c:f>List1!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2260,7 +2386,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C3</c:v>
+            <c:strRef>
+              <c:f>List1!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2375,7 +2509,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>C4</c:v>
+            <c:strRef>
+              <c:f>List1!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2490,7 +2632,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>C5</c:v>
+            <c:strRef>
+              <c:f>List1!$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2605,7 +2755,15 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>C6</c:v>
+            <c:strRef>
+              <c:f>List1!$Y$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2720,7 +2878,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>C7</c:v>
+            <c:strRef>
+              <c:f>List1!$Z$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2841,7 +3007,15 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>C8</c:v>
+            <c:strRef>
+              <c:f>List1!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2962,7 +3136,15 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>C9</c:v>
+            <c:strRef>
+              <c:f>List1!$AB$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4571,15 +4753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>494391</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>134256</xdr:rowOff>
+      <xdr:colOff>31748</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>117929</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9071</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>263072</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4906,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47630F0-D406-4D99-ACD0-4230A5574627}">
   <dimension ref="B1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG33" sqref="AG33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4932,10 +5114,10 @@
     <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -4944,15 +5126,15 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="K2" s="22"/>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
@@ -4961,67 +5143,67 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
       <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
+      <c r="AB2" s="22"/>
     </row>
     <row r="3" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="18"/>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
+      <c r="C3" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="19" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="AA3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.35">
@@ -5031,128 +5213,128 @@
       <c r="C4" s="4">
         <v>5582799435.5745602</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>156877201.31290501</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>61431998.731929503</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>158210465.47478601</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>5829948239.1860304</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>65682379.953283802</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>61769483.1248063</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>62446125.282962799</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="23">
         <v>2286182005.4303198</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="15">
         <f>$N$5/B4</f>
         <v>500000000</v>
       </c>
       <c r="T4" s="4">
         <v>5582799435.5745602</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <v>156877201.31290501</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>61431998.731929503</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>158210465.47478601</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>5829948239.1860304</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>65682379.953283802</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>61769483.1248063</v>
       </c>
-      <c r="AA4" s="5">
+      <c r="AA4" s="4">
         <v>62446125.282962799</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="23">
         <v>2286182005.4303198</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>200</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>4016323001.0426898</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>112269510.545919</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>85124652.260015994</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>113018303.828328</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>4130874972.33464</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>51758628.954369597</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>85360198.632519603</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>49802403.492631003</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="24">
         <v>1448648566.91957</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="20">
+        <v>7</v>
+      </c>
+      <c r="N5" s="14">
         <v>50000000000</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="15">
         <f t="shared" ref="S5:S13" si="0">$N$5/B5</f>
         <v>250000000</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="6">
         <v>4016323001.0426898</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>112269510.545919</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>85124652.260015994</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>113018303.828328</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <v>4130874972.33464</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>51758628.954369597</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <v>85360198.632519603</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="6">
         <v>49802403.492631003</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="24">
         <v>1448648566.91957</v>
       </c>
     </row>
@@ -5160,125 +5342,125 @@
       <c r="B6" s="3">
         <v>300</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>3415352499.9337201</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>93177945.943226695</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>94400485.646997005</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>93705176.787528902</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>3461178481.90799</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>45861195.553945601</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>93593375.744811594</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>43691105.315074898</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="24">
         <v>1121898729.20029</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="15">
         <f t="shared" si="0"/>
         <v>166666666.66666666</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="6">
         <v>3415352499.9337201</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>93177945.943226695</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>94400485.646997005</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>93705176.787528902</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <v>3461178481.90799</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="6">
         <v>45861195.553945601</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="Z6" s="6">
         <v>93593375.744811594</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>43691105.315074898</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="24">
         <v>1121898729.20029</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>400</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>3090997019.4436498</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>81978591.222065195</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>99398701.353800207</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>82394405.219740003</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>3093465349.60531</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>43082713.604244798</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>97105913.323163494</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>39797840.332121298</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="24">
         <v>944704229.99351299</v>
       </c>
-      <c r="S7" s="21">
+      <c r="S7" s="15">
         <f t="shared" si="0"/>
         <v>125000000</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="6">
         <v>3090997019.4436498</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>81978591.222065195</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>99398701.353800207</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <v>82394405.219740003</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <v>3093465349.60531</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <v>43082713.604244798</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="6">
         <v>97105913.323163494</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>39797840.332121298</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="24">
         <v>944704229.99351299</v>
       </c>
     </row>
@@ -5286,125 +5468,125 @@
       <c r="B8" s="3">
         <v>500</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>2885925879.1770201</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>74488978.140323997</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>102563378.08507501</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>74838297.550564006</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>2858050316.2570701</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>41688413.701889701</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>98864654.748426005</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>37155269.838930503</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="24">
         <v>832522144.34599102</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="15">
         <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="6">
         <v>2885925879.1770201</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>74488978.140323997</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>102563378.08507501</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="6">
         <v>74838297.550564006</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <v>2858050316.2570701</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="6">
         <v>41688413.701889701</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="6">
         <v>98864654.748426005</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="6">
         <v>37155269.838930503</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="24">
         <v>832522144.34599102</v>
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>600</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>2743681992.8301702</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>69092126.237662807</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>104771296.930645</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>69397011.753018007</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>2693150382.0058198</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>40987393.498797402</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>100196729.137087</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>35568799.920106903</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="24">
         <v>754222346.66114497</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="15">
         <f t="shared" si="0"/>
         <v>83333333.333333328</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="6">
         <v>2743681992.8301702</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>69092126.237662807</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>104771296.930645</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <v>69397011.753018007</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <v>2693150382.0058198</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="6">
         <v>40987393.498797402</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="Z9" s="6">
         <v>100196729.137087</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="6">
         <v>35568799.920106903</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="24">
         <v>754222346.66114497</v>
       </c>
     </row>
@@ -5412,125 +5594,125 @@
       <c r="B10" s="3">
         <v>700</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>2638796756.6093302</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>65006290.407663502</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>106413968.087431</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>65279047.458564296</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>2570580053.4813299</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>40663725.7582241</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>101336748.09742901</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>34643025.590091497</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="24">
         <v>696125975.37559402</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="15">
         <f t="shared" si="0"/>
         <v>71428571.428571433</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="6">
         <v>2638796756.6093302</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>65006290.407663502</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="6">
         <v>106413968.087431</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="6">
         <v>65279047.458564296</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <v>2570580053.4813299</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="6">
         <v>40663725.7582241</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="6">
         <v>101336748.09742901</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="6">
         <v>34643025.590091497</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="24">
         <v>696125975.37559402</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>800</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>2558024822.46103</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>61800779.196529098</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>107692852.104231</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>61854899.315766297</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>2476673277.1257</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>40700266.551729597</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>102335935.186721</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>34110985.5236331</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="24">
         <v>651141986.98679602</v>
       </c>
-      <c r="S11" s="21">
+      <c r="S11" s="15">
         <f t="shared" si="0"/>
         <v>62500000</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="6">
         <v>2558024822.46103</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>61800779.196529098</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>107692852.104231</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <v>61854899.315766297</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <v>2476673277.1257</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="6">
         <v>40700266.551729597</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="Z11" s="6">
         <v>102335935.186721</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="6">
         <v>34110985.5236331</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="24">
         <v>651141986.98679602</v>
       </c>
     </row>
@@ -5538,62 +5720,62 @@
       <c r="B12" s="3">
         <v>900</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>2493768709.19626</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>59216719.095205702</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>108722520.470329</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>59059972.719399698</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>2401867683.26651</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>40867964.980322599</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>103225296.69749901</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>33825098.804961801</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="24">
         <v>615181099.03473794</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="15">
         <f t="shared" si="0"/>
         <v>55555555.555555552</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="6">
         <v>2493768709.19626</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>59216719.095205702</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>108722520.470329</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="6">
         <v>59059972.719399698</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <v>2401867683.26651</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="6">
         <v>40867964.980322599</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="6">
         <v>103225296.69749901</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="6">
         <v>33825098.804961801</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="24">
         <v>615181099.03473794</v>
       </c>
     </row>
@@ -5601,301 +5783,301 @@
       <c r="B13" s="3">
         <v>1000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>2441345558.4443898</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>57088402.280639596</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>109573165.58483499</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>56774797.901144996</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>2340530131.2536101</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>41078701.107382402</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>104000180.973634</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>33671659.148615301</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="24">
         <v>585742824.63456297</v>
       </c>
-      <c r="S13" s="21">
+      <c r="S13" s="15">
         <f t="shared" si="0"/>
         <v>50000000</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="6">
         <v>2441345558.4443898</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>57088402.280639596</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="6">
         <v>109573165.58483499</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <v>56774797.901144996</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="6">
         <v>2340530131.2536101</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="6">
         <v>41078701.107382402</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="6">
         <v>104000180.973634</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="6">
         <v>33671659.148615301</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="24">
         <v>585742824.63456297</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
         <f t="shared" ref="C14:K14" si="1">AVERAGEA(C4:C13)</f>
         <v>3186701567.4712815</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>83099654.438214064</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <f t="shared" si="1"/>
         <v>98009301.925528884</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>83453237.800884023</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>3185631888.6424012</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>45237138.366418965</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
         <v>94778851.56660971</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="8">
         <f t="shared" si="1"/>
         <v>40471231.324912913</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="25">
         <f t="shared" si="1"/>
         <v>993636990.85825217</v>
       </c>
-      <c r="S14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" s="9">
+      <c r="S14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
         <f t="shared" ref="T14" si="2">AVERAGEA(T4:T13)</f>
         <v>3186701567.4712815</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="8">
         <f t="shared" ref="U14" si="3">AVERAGEA(U4:U13)</f>
         <v>83099654.438214064</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="8">
         <f t="shared" ref="V14" si="4">AVERAGEA(V4:V13)</f>
         <v>98009301.925528884</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="8">
         <f t="shared" ref="W14" si="5">AVERAGEA(W4:W13)</f>
         <v>83453237.800884023</v>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="8">
         <f t="shared" ref="X14" si="6">AVERAGEA(X4:X13)</f>
         <v>3185631888.6424012</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="8">
         <f t="shared" ref="Y14" si="7">AVERAGEA(Y4:Y13)</f>
         <v>45237138.366418965</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="8">
         <f t="shared" ref="Z14" si="8">AVERAGEA(Z4:Z13)</f>
         <v>94778851.56660971</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="8">
         <f t="shared" ref="AA14" si="9">AVERAGEA(AA4:AA13)</f>
         <v>40471231.324912913</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="25">
         <f t="shared" ref="AB14" si="10">AVERAGEA(AB4:AB13)</f>
         <v>993636990.85825217</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <f t="shared" ref="C15:K15" si="11">_xlfn.STDEV.P(C4:C13)</f>
         <v>922435653.14527225</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <f t="shared" si="11"/>
         <v>29487594.020347688</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <f t="shared" si="11"/>
         <v>14135901.207263837</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f t="shared" si="11"/>
         <v>29907046.39558534</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <f t="shared" si="11"/>
         <v>1026136255.5086454</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <f t="shared" si="11"/>
         <v>7576965.7509488063</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <f t="shared" si="11"/>
         <v>12197081.837488571</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="8">
         <f t="shared" si="11"/>
         <v>8835401.4322027583</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="25">
         <f t="shared" si="11"/>
         <v>499525089.27797139</v>
       </c>
-      <c r="S15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" s="9">
+      <c r="S15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="8">
         <f t="shared" ref="T15:AB15" si="12">_xlfn.STDEV.P(T4:T13)</f>
         <v>922435653.14527225</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="8">
         <f t="shared" si="12"/>
         <v>29487594.020347688</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="8">
         <f t="shared" si="12"/>
         <v>14135901.207263837</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="8">
         <f t="shared" si="12"/>
         <v>29907046.39558534</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="8">
         <f t="shared" si="12"/>
         <v>1026136255.5086454</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="8">
         <f t="shared" si="12"/>
         <v>7576965.7509488063</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="8">
         <f t="shared" si="12"/>
         <v>12197081.837488571</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="8">
         <f t="shared" si="12"/>
         <v>8835401.4322027583</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="25">
         <f t="shared" si="12"/>
         <v>499525089.27797139</v>
       </c>
     </row>
     <row r="16" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
         <f>C15/C14</f>
         <v>0.28946408492127657</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="11">
         <f t="shared" ref="D16:K16" si="13">D15/D14</f>
         <v>0.35484616897260612</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <f t="shared" si="13"/>
         <v>0.14423019988454586</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <f t="shared" si="13"/>
         <v>0.35836891633782164</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="11">
         <f t="shared" si="13"/>
         <v>0.32211388238769384</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="12">
         <f t="shared" si="13"/>
         <v>0.16749436468716686</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="11">
         <f t="shared" si="13"/>
         <v>0.12868990957245957</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="11">
         <f t="shared" si="13"/>
         <v>0.21831313609586031</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="11">
         <f t="shared" si="13"/>
         <v>0.50272392621626083</v>
       </c>
-      <c r="S16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="13">
+      <c r="S16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="11">
         <f>T15/T14</f>
         <v>0.28946408492127657</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="11">
         <f t="shared" ref="U16:AB16" si="14">U15/U14</f>
         <v>0.35484616897260612</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="11">
         <f t="shared" si="14"/>
         <v>0.14423019988454586</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W16" s="11">
         <f t="shared" si="14"/>
         <v>0.35836891633782164</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16" s="11">
         <f t="shared" si="14"/>
         <v>0.32211388238769384</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y16" s="12">
         <f t="shared" si="14"/>
         <v>0.16749436468716686</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z16" s="11">
         <f t="shared" si="14"/>
         <v>0.12868990957245957</v>
       </c>
-      <c r="AA16" s="14">
+      <c r="AA16" s="11">
         <f t="shared" si="14"/>
         <v>0.21831313609586031</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AB16" s="11">
         <f t="shared" si="14"/>
         <v>0.50272392621626083</v>
       </c>
